--- a/data/trans_orig/P5B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P5B_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C3E2B94-164A-450D-8233-B2E723DE7D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E9F2E00-0123-418B-9E5A-F96B6AB36A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{394D5D91-0E49-479D-8108-757DE08292DE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7E9955C2-3585-4B4F-9E89-C1FAD52326CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="459">
   <si>
     <t>Población que percibe la calidad medioambiental como mala o muy mala en la zona de residencia en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>3,13%</t>
@@ -191,7 +191,7 @@
     <t>97,27%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>3,62%</t>
@@ -248,7 +248,7 @@
     <t>96,3%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>1,94%</t>
@@ -305,7 +305,7 @@
     <t>97,95%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -356,883 +356,1066 @@
     <t>97,13%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que percibe la calidad medioambiental como mala o muy mala en la zona de residencia en 2012 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>Población que percibe la calidad medioambiental como mala o muy mala en la zona de residencia en 2016 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Población que percibe la calidad medioambiental como mala o muy mala en la zona de residencia en 2023 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que percibe la calidad medioambiental como mala o muy mala en la zona de residencia en 2012 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>Población que percibe la calidad medioambiental como mala o muy mala en la zona de residencia en 2016 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Población que percibe la calidad medioambiental como mala o muy mala en la zona de residencia en 2023 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,29%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>97,37%</t>
-  </si>
-  <si>
     <t>99,16%</t>
   </si>
   <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
 </sst>
 </file>
@@ -1644,8 +1827,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12687B22-2A2E-45AF-81AB-1F93502B6150}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE246F9E-F2C4-430A-BC2F-9632763BCE32}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2537,10 +2720,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>12818</v>
+        <v>3376</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2549,37 +2732,37 @@
         <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I19" s="7">
-        <v>33941</v>
+        <v>20338</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="N19" s="7">
-        <v>46759</v>
+        <v>23714</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,49 +2771,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>505</v>
+        <v>299</v>
       </c>
       <c r="D20" s="7">
-        <v>486427</v>
+        <v>289207</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>627</v>
+        <v>349</v>
       </c>
       <c r="I20" s="7">
-        <v>642901</v>
+        <v>322596</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>1132</v>
+        <v>648</v>
       </c>
       <c r="N20" s="7">
-        <v>1129329</v>
+        <v>611803</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,10 +2822,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>520</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>499245</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2654,10 +2837,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2669,10 +2852,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1181</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1176088</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2686,55 +2869,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>96357</v>
+        <v>9442</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I22" s="7">
-        <v>158282</v>
+        <v>13603</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="N22" s="7">
-        <v>254639</v>
+        <v>23045</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,49 +2926,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3116</v>
+        <v>206</v>
       </c>
       <c r="D23" s="7">
-        <v>3176067</v>
+        <v>197220</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>3141</v>
+        <v>278</v>
       </c>
       <c r="I23" s="7">
-        <v>3219291</v>
+        <v>320305</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>6257</v>
+        <v>484</v>
       </c>
       <c r="N23" s="7">
-        <v>6395358</v>
+        <v>517525</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,63 +2977,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>217</v>
+      </c>
+      <c r="D24" s="7">
+        <v>206662</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>507</v>
+      </c>
+      <c r="N24" s="7">
+        <v>540570</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>94</v>
+      </c>
+      <c r="D25" s="7">
+        <v>96357</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>155</v>
+      </c>
+      <c r="I25" s="7">
+        <v>158282</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>249</v>
+      </c>
+      <c r="N25" s="7">
+        <v>254639</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3116</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3176067</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3141</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3219291</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6257</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6395358</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3210</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3272424</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3377573</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6506</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6649997</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2863,8 +3202,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA12DB5F-C19D-447A-8333-FC7E379149ED}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000BF88C-9E92-4B09-A36D-B320D52FEF5E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2880,7 +3219,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2987,13 +3326,13 @@
         <v>4813</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3002,13 +3341,13 @@
         <v>7247</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -3017,13 +3356,13 @@
         <v>12059</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3377,13 @@
         <v>448379</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>414</v>
@@ -3053,13 +3392,13 @@
         <v>422983</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>854</v>
@@ -3068,13 +3407,13 @@
         <v>871363</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3481,13 @@
         <v>12241</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3157,13 +3496,13 @@
         <v>11147</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -3172,13 +3511,13 @@
         <v>23388</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3532,13 @@
         <v>670821</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>559</v>
@@ -3208,13 +3547,13 @@
         <v>598140</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>1210</v>
@@ -3223,13 +3562,13 @@
         <v>1268961</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3636,13 @@
         <v>13724</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3312,13 +3651,13 @@
         <v>14340</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3327,13 +3666,13 @@
         <v>28064</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3687,13 @@
         <v>667207</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>652</v>
@@ -3363,28 +3702,28 @@
         <v>694434</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>1290</v>
       </c>
       <c r="N11" s="7">
-        <v>1361640</v>
+        <v>1361641</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,7 +3765,7 @@
         <v>1315</v>
       </c>
       <c r="N12" s="7">
-        <v>1389704</v>
+        <v>1389705</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3452,13 +3791,13 @@
         <v>14411</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3467,13 +3806,13 @@
         <v>8228</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3485,7 +3824,7 @@
         <v>18</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>95</v>
@@ -3503,13 +3842,13 @@
         <v>599176</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>531</v>
@@ -3518,19 +3857,19 @@
         <v>606948</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>1066</v>
       </c>
       <c r="N14" s="7">
-        <v>1206123</v>
+        <v>1206124</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>29</v>
@@ -3539,7 +3878,7 @@
         <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,7 +3920,7 @@
         <v>1085</v>
       </c>
       <c r="N15" s="7">
-        <v>1228762</v>
+        <v>1228763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3607,13 +3946,13 @@
         <v>5174</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3622,13 +3961,13 @@
         <v>6238</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3637,13 +3976,13 @@
         <v>11411</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3997,13 @@
         <v>423225</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>395</v>
@@ -3673,13 +4012,13 @@
         <v>436483</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>782</v>
@@ -3688,13 +4027,13 @@
         <v>859709</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,49 +4095,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>6193</v>
+        <v>2012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="H19" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>10517</v>
+        <v>1776</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>16710</v>
+        <v>3789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,49 +4146,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>492</v>
+        <v>276</v>
       </c>
       <c r="D20" s="7">
-        <v>547438</v>
+        <v>303799</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="H20" s="7">
-        <v>678</v>
+        <v>342</v>
       </c>
       <c r="I20" s="7">
-        <v>724883</v>
+        <v>351253</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
-        <v>1170</v>
+        <v>618</v>
       </c>
       <c r="N20" s="7">
-        <v>1272322</v>
+        <v>655051</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>154</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,10 +4197,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>498</v>
+        <v>278</v>
       </c>
       <c r="D21" s="7">
-        <v>553631</v>
+        <v>305811</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3873,10 +4212,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>687</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>735400</v>
+        <v>353029</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3888,10 +4227,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1185</v>
+        <v>621</v>
       </c>
       <c r="N21" s="7">
-        <v>1289032</v>
+        <v>658840</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3905,55 +4244,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>56556</v>
+        <v>4181</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="H22" s="7">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I22" s="7">
-        <v>57716</v>
+        <v>8741</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="N22" s="7">
-        <v>114272</v>
+        <v>12922</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,49 +4301,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3143</v>
+        <v>216</v>
       </c>
       <c r="D23" s="7">
-        <v>3356246</v>
+        <v>243640</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="H23" s="7">
-        <v>3229</v>
+        <v>336</v>
       </c>
       <c r="I23" s="7">
-        <v>3483872</v>
+        <v>373630</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="M23" s="7">
-        <v>6372</v>
+        <v>552</v>
       </c>
       <c r="N23" s="7">
-        <v>6840117</v>
+        <v>617270</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,63 +4352,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>247821</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>344</v>
+      </c>
+      <c r="I24" s="7">
+        <v>382371</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>564</v>
+      </c>
+      <c r="N24" s="7">
+        <v>630192</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>52</v>
+      </c>
+      <c r="D25" s="7">
+        <v>56556</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H25" s="7">
+        <v>53</v>
+      </c>
+      <c r="I25" s="7">
+        <v>57716</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M25" s="7">
+        <v>105</v>
+      </c>
+      <c r="N25" s="7">
+        <v>114272</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3143</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3356246</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3229</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3483871</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6372</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6840117</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3195</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3412802</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3282</v>
       </c>
-      <c r="I24" s="7">
-        <v>3541588</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3541587</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6477</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6954389</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4082,8 +4577,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53D284C-E125-43A1-BCF0-D0B822C7B4C1}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECC9B62-BD2C-4650-B071-03C1450D3D8D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4099,7 +4594,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4206,13 +4701,13 @@
         <v>3181</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4221,13 +4716,13 @@
         <v>10958</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4236,13 +4731,13 @@
         <v>14139</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4752,13 @@
         <v>416282</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="H5" s="7">
         <v>391</v>
@@ -4272,13 +4767,13 @@
         <v>381953</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
         <v>781</v>
@@ -4287,13 +4782,13 @@
         <v>798235</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4856,13 @@
         <v>8449</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4376,13 +4871,13 @@
         <v>11769</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -4394,10 +4889,10 @@
         <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>212</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,13 +4907,13 @@
         <v>580284</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="H8" s="7">
         <v>565</v>
@@ -4427,13 +4922,13 @@
         <v>549839</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>1122</v>
@@ -4445,10 +4940,10 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>220</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,10 +5011,10 @@
         <v>7231</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>77</v>
@@ -4531,13 +5026,13 @@
         <v>13021</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -4546,13 +5041,13 @@
         <v>20252</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +5062,13 @@
         <v>660819</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>87</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>651</v>
@@ -4582,13 +5077,13 @@
         <v>647484</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="M11" s="7">
         <v>1281</v>
@@ -4597,13 +5092,13 @@
         <v>1308303</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +5166,13 @@
         <v>10790</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -4686,13 +5181,13 @@
         <v>12137</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -4701,13 +5196,13 @@
         <v>22927</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,16 +5214,16 @@
         <v>572</v>
       </c>
       <c r="D14" s="7">
-        <v>632786</v>
+        <v>632787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="H14" s="7">
         <v>591</v>
@@ -4737,13 +5232,13 @@
         <v>636940</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="M14" s="7">
         <v>1163</v>
@@ -4752,13 +5247,13 @@
         <v>1269727</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,7 +5265,7 @@
         <v>580</v>
       </c>
       <c r="D15" s="7">
-        <v>643576</v>
+        <v>643577</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4826,13 +5321,13 @@
         <v>5916</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4841,13 +5336,13 @@
         <v>6882</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -4856,13 +5351,13 @@
         <v>12798</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +5372,13 @@
         <v>468568</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="H17" s="7">
         <v>424</v>
@@ -4892,13 +5387,13 @@
         <v>486565</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>840</v>
@@ -4907,13 +5402,13 @@
         <v>955133</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,49 +5470,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>10456</v>
+        <v>4632</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="H19" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I19" s="7">
-        <v>20679</v>
+        <v>8251</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>55</v>
+        <v>345</v>
       </c>
       <c r="M19" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="N19" s="7">
-        <v>31135</v>
+        <v>12883</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>310</v>
+        <v>185</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,49 +5521,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>616</v>
+        <v>321</v>
       </c>
       <c r="D20" s="7">
-        <v>580872</v>
+        <v>329698</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="H20" s="7">
-        <v>634</v>
+        <v>345</v>
       </c>
       <c r="I20" s="7">
-        <v>752285</v>
+        <v>368476</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>84</v>
+        <v>350</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>65</v>
+        <v>351</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="M20" s="7">
-        <v>1250</v>
+        <v>666</v>
       </c>
       <c r="N20" s="7">
-        <v>1333157</v>
+        <v>698174</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>194</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,10 +5572,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5092,10 +5587,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>651</v>
+        <v>353</v>
       </c>
       <c r="I21" s="7">
-        <v>772964</v>
+        <v>376727</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5107,10 +5602,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1278</v>
+        <v>678</v>
       </c>
       <c r="N21" s="7">
-        <v>1364292</v>
+        <v>711057</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5124,55 +5619,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>46024</v>
+        <v>5825</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>162</v>
+        <v>355</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>164</v>
+        <v>356</v>
       </c>
       <c r="H22" s="7">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="I22" s="7">
-        <v>75446</v>
+        <v>12428</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>74</v>
+        <v>359</v>
       </c>
       <c r="M22" s="7">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="N22" s="7">
-        <v>121470</v>
+        <v>18252</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>15</v>
+        <v>283</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,49 +5676,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3181</v>
+        <v>295</v>
       </c>
       <c r="D23" s="7">
-        <v>3339610</v>
+        <v>251173</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>173</v>
+        <v>363</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>172</v>
+        <v>364</v>
       </c>
       <c r="H23" s="7">
-        <v>3256</v>
+        <v>289</v>
       </c>
       <c r="I23" s="7">
-        <v>3455067</v>
+        <v>383809</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>84</v>
+        <v>366</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="M23" s="7">
-        <v>6437</v>
+        <v>584</v>
       </c>
       <c r="N23" s="7">
-        <v>6794678</v>
+        <v>634983</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>26</v>
+        <v>292</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,63 +5727,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>298</v>
+      </c>
+      <c r="I24" s="7">
+        <v>396237</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>600</v>
+      </c>
+      <c r="N24" s="7">
+        <v>653235</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>42</v>
+      </c>
+      <c r="D25" s="7">
+        <v>46024</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H25" s="7">
+        <v>69</v>
+      </c>
+      <c r="I25" s="7">
+        <v>75446</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="7">
+        <v>111</v>
+      </c>
+      <c r="N25" s="7">
+        <v>121470</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3181</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3339611</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3256</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3455067</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6437</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6794678</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3223</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385634</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3385635</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3325</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3530513</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6548</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6916148</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5301,8 +5952,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D564B8AC-D930-414E-B975-9DF9006AE447}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A69897-703C-4163-95E5-ADBA5C9FD094}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5318,7 +5969,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5422,46 +6073,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1724</v>
+        <v>1796</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>331</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>6255</v>
+        <v>5855</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>187</v>
+        <v>382</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>7979</v>
+        <v>7650</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,46 +6124,46 @@
         <v>170</v>
       </c>
       <c r="D5" s="7">
-        <v>375795</v>
+        <v>398026</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>203</v>
       </c>
       <c r="I5" s="7">
-        <v>348702</v>
+        <v>307345</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>26</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>387</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>373</v>
       </c>
       <c r="N5" s="7">
-        <v>724497</v>
+        <v>705372</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,7 +6175,7 @@
         <v>171</v>
       </c>
       <c r="D6" s="7">
-        <v>377519</v>
+        <v>399822</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5539,7 +6190,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5554,7 +6205,7 @@
         <v>378</v>
       </c>
       <c r="N6" s="7">
-        <v>732476</v>
+        <v>713022</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5577,46 +6228,46 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>9726</v>
+        <v>9691</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>287</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>7391</v>
+        <v>6630</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>288</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>17118</v>
+        <v>16321</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>286</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>162</v>
+        <v>323</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,46 +6279,46 @@
         <v>296</v>
       </c>
       <c r="D8" s="7">
-        <v>418670</v>
+        <v>413856</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="H8" s="7">
         <v>455</v>
       </c>
       <c r="I8" s="7">
-        <v>491824</v>
+        <v>505463</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>355</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>751</v>
       </c>
       <c r="N8" s="7">
-        <v>910493</v>
+        <v>919319</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,7 +6330,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5694,7 +6345,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5709,7 +6360,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5732,46 +6383,46 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>5865</v>
+        <v>5772</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>397</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>5129</v>
+        <v>4731</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>10994</v>
+        <v>10503</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,46 +6434,46 @@
         <v>539</v>
       </c>
       <c r="D11" s="7">
-        <v>550178</v>
+        <v>529382</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>343</v>
+        <v>404</v>
       </c>
       <c r="H11" s="7">
         <v>841</v>
       </c>
       <c r="I11" s="7">
-        <v>604540</v>
+        <v>586541</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="M11" s="7">
         <v>1380</v>
       </c>
       <c r="N11" s="7">
-        <v>1154717</v>
+        <v>1115923</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>408</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,7 +6485,7 @@
         <v>544</v>
       </c>
       <c r="D12" s="7">
-        <v>556043</v>
+        <v>535154</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5849,7 +6500,7 @@
         <v>847</v>
       </c>
       <c r="I12" s="7">
-        <v>609669</v>
+        <v>591272</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5864,7 +6515,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1165711</v>
+        <v>1126426</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5887,46 +6538,46 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>4383</v>
+        <v>4050</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>368</v>
+        <v>106</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>8235</v>
+        <v>7653</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>369</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>12618</v>
+        <v>11703</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,46 +6589,46 @@
         <v>660</v>
       </c>
       <c r="D14" s="7">
-        <v>718167</v>
+        <v>882280</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>115</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="H14" s="7">
         <v>1127</v>
       </c>
       <c r="I14" s="7">
-        <v>737795</v>
+        <v>704097</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="M14" s="7">
         <v>1787</v>
       </c>
       <c r="N14" s="7">
-        <v>1455962</v>
+        <v>1586378</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>353</v>
+        <v>417</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>324</v>
+        <v>418</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5989,7 +6640,7 @@
         <v>664</v>
       </c>
       <c r="D15" s="7">
-        <v>722550</v>
+        <v>886330</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6004,7 +6655,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746030</v>
+        <v>711750</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6019,7 +6670,7 @@
         <v>1803</v>
       </c>
       <c r="N15" s="7">
-        <v>1468580</v>
+        <v>1598081</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6042,46 +6693,46 @@
         <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>8791</v>
+        <v>8333</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>147</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>9340</v>
+        <v>8588</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
       </c>
       <c r="N16" s="7">
-        <v>18131</v>
+        <v>16921</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>422</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>423</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,46 +6744,46 @@
         <v>653</v>
       </c>
       <c r="D17" s="7">
-        <v>589919</v>
+        <v>551475</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>984</v>
       </c>
       <c r="I17" s="7">
-        <v>585778</v>
+        <v>537571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="M17" s="7">
         <v>1637</v>
       </c>
       <c r="N17" s="7">
-        <v>1175697</v>
+        <v>1089046</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>283</v>
+        <v>428</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,7 +6795,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>598710</v>
+        <v>559808</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6159,7 +6810,7 @@
         <v>999</v>
       </c>
       <c r="I18" s="7">
-        <v>595118</v>
+        <v>546159</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6174,7 +6825,7 @@
         <v>1661</v>
       </c>
       <c r="N18" s="7">
-        <v>1193828</v>
+        <v>1105967</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6194,49 +6845,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>7909</v>
+        <v>5156</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>385</v>
+        <v>168</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>432</v>
       </c>
       <c r="H19" s="7">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I19" s="7">
-        <v>13055</v>
+        <v>6732</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>433</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>387</v>
+        <v>263</v>
       </c>
       <c r="M19" s="7">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N19" s="7">
-        <v>20965</v>
+        <v>11889</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>345</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,49 +6896,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>1013</v>
+        <v>560</v>
       </c>
       <c r="D20" s="7">
-        <v>688553</v>
+        <v>362377</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>389</v>
+        <v>178</v>
       </c>
       <c r="H20" s="7">
-        <v>1673</v>
+        <v>808</v>
       </c>
       <c r="I20" s="7">
-        <v>1008585</v>
+        <v>599515</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>390</v>
+        <v>271</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="M20" s="7">
-        <v>2686</v>
+        <v>1368</v>
       </c>
       <c r="N20" s="7">
-        <v>1697137</v>
+        <v>961891</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>353</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,10 +6947,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1026</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696462</v>
+        <v>367533</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6311,10 +6962,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1698</v>
+        <v>822</v>
       </c>
       <c r="I21" s="7">
-        <v>1021640</v>
+        <v>606247</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6326,10 +6977,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2724</v>
+        <v>1391</v>
       </c>
       <c r="N21" s="7">
-        <v>1718102</v>
+        <v>973780</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6343,55 +6994,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>38399</v>
+        <v>2367</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>393</v>
+        <v>197</v>
       </c>
       <c r="H22" s="7">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>49406</v>
+        <v>5224</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>394</v>
+        <v>262</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>162</v>
+        <v>441</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>228</v>
+        <v>442</v>
       </c>
       <c r="M22" s="7">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="N22" s="7">
-        <v>87805</v>
+        <v>7591</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>443</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>347</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,49 +7051,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3331</v>
+        <v>453</v>
       </c>
       <c r="D23" s="7">
-        <v>3341280</v>
+        <v>279788</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>395</v>
+        <v>202</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="H23" s="7">
-        <v>5283</v>
+        <v>865</v>
       </c>
       <c r="I23" s="7">
-        <v>3777222</v>
+        <v>418129</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>397</v>
+        <v>272</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>236</v>
+        <v>447</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>172</v>
+        <v>448</v>
       </c>
       <c r="M23" s="7">
-        <v>8614</v>
+        <v>1318</v>
       </c>
       <c r="N23" s="7">
-        <v>7118502</v>
+        <v>697917</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>354</v>
+        <v>449</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,63 +7102,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282155</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>876</v>
+      </c>
+      <c r="I24" s="7">
+        <v>423353</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1333</v>
+      </c>
+      <c r="N24" s="7">
+        <v>705508</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>38</v>
+      </c>
+      <c r="D25" s="7">
+        <v>37165</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H25" s="7">
+        <v>68</v>
+      </c>
+      <c r="I25" s="7">
+        <v>45413</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="M25" s="7">
+        <v>106</v>
+      </c>
+      <c r="N25" s="7">
+        <v>82578</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3331</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3417184</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5283</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3658661</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8614</v>
+      </c>
+      <c r="N26" s="7">
+        <v>7075845</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3369</v>
       </c>
-      <c r="D24" s="7">
-        <v>3379679</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3454349</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5351</v>
       </c>
-      <c r="I24" s="7">
-        <v>3826628</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3704074</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8720</v>
       </c>
-      <c r="N24" s="7">
-        <v>7206307</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="N27" s="7">
+        <v>7158423</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
